--- a/Database.xlsx
+++ b/Database.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -383,18 +383,6 @@
   </si>
   <si>
     <t>DateTime</t>
-  </si>
-  <si>
-    <t>rishabhmathur106@gmail.com</t>
-  </si>
-  <si>
-    <t>C-1 245 BlockC</t>
-  </si>
-  <si>
-    <t>headstation@gmail.com</t>
-  </si>
-  <si>
-    <t>Database\Verified\Noida\1563674698\</t>
   </si>
 </sst>
 </file>
@@ -748,11 +736,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -838,68 +824,6 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5">
-        <v>43664</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2">
-        <v>9643470948</v>
-      </c>
-      <c r="J2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="5">
-        <v>43666</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2">
-        <v>1563674698</v>
-      </c>
-      <c r="T2" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
